--- a/Tim_Test_data.xlsx
+++ b/Tim_Test_data.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9234FFD0-EB81-1348-AF77-D3905FFC03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15000" yWindow="4420" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>afdaf</t>
+  </si>
+  <si>
+    <t>sdfdsa</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,52 +436,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4632B006-6E03-1148-8B8D-67FBE629D577}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>3</v>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Tim_Test_data.xlsx
+++ b/Tim_Test_data.xlsx
@@ -1,73 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9234FFD0-EB81-1348-AF77-D3905FFC03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="4420" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19200" yWindow="-2640" windowWidth="16100" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet21" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet22" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="Name">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>afdaf</t>
-  </si>
-  <si>
-    <t>sdfdsa</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -90,29 +87,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,68 +539,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,27 +584,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4632B006-6E03-1148-8B8D-67FBE629D577}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Team_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Team_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Team_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>League_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Player_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jamisons</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jamies</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Leos</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Tim_Test_data.xlsx
+++ b/Tim_Test_data.xlsx
@@ -1,70 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C31BAB0-AC0B-6744-B419-E9F33C3E689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19200" yWindow="-2640" windowWidth="16100" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-19200" yWindow="-2640" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet21" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet21" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet22" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Name">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Team_ID</t>
+  </si>
+  <si>
+    <t>Team_Name</t>
+  </si>
+  <si>
+    <t>League_ID</t>
+  </si>
+  <si>
+    <t>Player_Count</t>
+  </si>
+  <si>
+    <t>Jamisons</t>
+  </si>
+  <si>
+    <t>Jamies</t>
+  </si>
+  <si>
+    <t>Leos</t>
+  </si>
+  <si>
+    <t>WAC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,105 +147,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -539,44 +499,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,55 +540,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>14</v>
       </c>
     </row>
@@ -642,113 +590,222 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Team_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Team_ID</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Team_Name</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>League_ID</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Player_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jamisons</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jamies</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Leos</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="D4">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>WAC</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
     </row>
@@ -758,55 +815,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A6:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>14</v>
       </c>
     </row>
